--- a/data/target.xlsx
+++ b/data/target.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,174 +115,186 @@
     <t>Wwnn:</t>
   </si>
   <si>
+    <t>Wwnn: 00-11-22-33-44-55-66-77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wwnn: 09-81-27-36-45-54-88-99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wwnn: aa-bb-cc-dd-ee-ff-aa-bb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target should be added by name 00-11-22-33-44-55-66-77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target should be added by name 09-81-27-36-45-54-88-99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target should be added by name aa-bb-cc-dd-ee-ff-aa-bb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target -a del -i 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00-11-22-33-44-55-66-77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target -a test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid setting test (list|add|del)</t>
+  </si>
+  <si>
+    <t>target -a add -n A1-bc-d7-e6-F5-54-88-99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target should be added by name A1-bc-d7-e6-F5-54-88-99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wwnn: A1-bc-d7-e6-F5-54-88-99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target -i 5</t>
+  </si>
+  <si>
+    <t>Index: 5</t>
+  </si>
+  <si>
+    <t>target -a add -n AB-CD-EF-AA-BB-CC-DD-FF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target should be added by name AB-CD-EF-AA-BB-CC-DD-FF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wwnn: AB-CD-EF-AA-BB-CC-DD-FF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target -a add -n abc-1-22-33-44-55-66-77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target -a add -n 091-81-27-36-45-54-88-99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initiator name should be 8 bytes long</t>
+  </si>
+  <si>
+    <t>target -a add -n a1-bc-d7-e6-f5-54-88-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initiator name should be 8 bytes long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target -a del -i test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target -i 65536</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid setting 65536 (1,65535)</t>
+  </si>
+  <si>
+    <t>target -a del -i 200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specified target not found</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target -a -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target -a add -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target -a del -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target -a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target -a add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">target -a add -n </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target -a del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target -a del -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>specific target should be deleted</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wwnn: 00-11-22-33-44-55-66-77</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wwnn: 09-81-27-36-45-54-88-99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wwnn: aa-bb-cc-dd-ee-ff-aa-bb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target should be added by name 00-11-22-33-44-55-66-77</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target should be added by name 09-81-27-36-45-54-88-99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target should be added by name aa-bb-cc-dd-ee-ff-aa-bb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>check command</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target -a del -i 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00-11-22-33-44-55-66-77</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Invalid setting parameters</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>target -a test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invalid setting test (list|add|del)</t>
-  </si>
-  <si>
-    <t>target -a add -n A1-bc-d7-e6-F5-54-88-99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target should be added by name A1-bc-d7-e6-F5-54-88-99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wwnn: A1-bc-d7-e6-F5-54-88-99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target -i 5</t>
-  </si>
-  <si>
-    <t>Index: 5</t>
-  </si>
-  <si>
-    <t>target -a add -n AB-CD-EF-AA-BB-CC-DD-FF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target should be added by name AB-CD-EF-AA-BB-CC-DD-FF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wwnn: AB-CD-EF-AA-BB-CC-DD-FF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target -a add -n abc-1-22-33-44-55-66-77</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid parameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target -a add -n 091-81-27-36-45-54-88-99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initiator name should be 8 bytes long</t>
-  </si>
-  <si>
-    <t>target -a add -n a1-bc-d7-e6-f5-54-88-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initiator name should be 8 bytes long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target -a del -i test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target -i 65536</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invalid setting 65536 (1,65535)</t>
-  </si>
-  <si>
-    <t>target -a del -i 200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specified target not found</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target -a -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target -a add -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target -a del -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target -a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target -a add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target -i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">target -a add -n </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target -a del</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target -a del -i</t>
+    <t>Invalid option for the command or the action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missing parameter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,7 +647,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -667,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -678,7 +690,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -687,7 +699,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -695,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -704,15 +716,15 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
         <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -721,7 +733,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -729,7 +741,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -738,24 +750,24 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
         <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -770,7 +782,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -890,7 +902,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -919,16 +931,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +955,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -967,92 +979,92 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
         <v>51</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
         <v>53</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
         <v>56</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -1099,12 +1111,12 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="47.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.5" customWidth="1"/>
     <col min="3" max="3" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1122,10 +1134,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1133,7 +1145,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1144,7 +1156,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1155,7 +1167,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1175,7 +1187,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1197,10 +1209,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1208,7 +1220,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1219,7 +1231,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1230,7 +1242,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1241,7 +1253,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1252,7 +1264,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
